--- a/medicine/Enfance/Robert_Perrein/Robert_Perrein.xlsx
+++ b/medicine/Enfance/Robert_Perrein/Robert_Perrein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Perrein, né le 18 mars 1900 à Paris et mort le 2 mars 1980 à Sarcelles, est un romancier français qui a également écrit sous le pseudonyme de Robert Pedro.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Robert Perrein
-Romans signés Robert Pedro
-Marchands d'esclaves, Paris, Rouff, coll. « Romans pour la jeunesse » no 78, 1934
+          <t>Romans signés Robert Pedro</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marchands d'esclaves, Paris, Rouff, coll. « Romans pour la jeunesse » no 78, 1934
 Vers le temple du soleil, Paris, Rouff, coll. « Romans pour la jeunesse » no 99, 1934
 Prisonnier des convicts, Paris, Rouff, coll. « Romans pour la jeunesse » no 121, 1935
 Le Document volé, Paris, Rouff, coll. « Romans pour la jeunesse » no 131, 1935
